--- a/Client/Assets/02. Scripts/Parse/GameData/Ch_Stat.xlsx
+++ b/Client/Assets/02. Scripts/Parse/GameData/Ch_Stat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB2CBA0-45E1-41BA-9469-A41DD1AA6D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14884F2F-6D92-41D4-9F24-62CB7EC51482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6B7BBA14-F215-42A1-AF74-6DAD170DC25E}"/>
+    <workbookView xWindow="-26460" yWindow="2475" windowWidth="24285" windowHeight="11295" activeTab="3" xr2:uid="{6B7BBA14-F215-42A1-AF74-6DAD170DC25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="2" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Ch_Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name(Info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ch_Walk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,50 +240,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ch_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_HoldWalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_HoldRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steal_Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_WeaponPick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_BombPick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ch_Stamina_recovery</t>
-  </si>
-  <si>
-    <t>Ch_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_Throw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_HoldWalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_HoldRun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steal_Stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_WeaponPick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ch_BombPick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action_Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +750,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -782,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -819,7 +816,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,22 +834,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -975,7 +972,7 @@
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -995,7 +992,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1007,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,7 +1041,7 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1061,7 +1058,7 @@
         <v>20002</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -1078,7 +1075,7 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.4</v>
@@ -1095,7 +1092,7 @@
         <v>20004</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1112,7 +1109,7 @@
         <v>20005</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1129,7 +1126,7 @@
         <v>20006</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0.17</v>
@@ -1146,7 +1143,7 @@
         <v>20007</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -1170,7 +1167,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1203,7 +1200,7 @@
         <v>30001</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1220,7 +1217,7 @@
         <v>30002</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0.5</v>
